--- a/src/main/resources/Template.xlsx
+++ b/src/main/resources/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tilla\Documents\Networks Energy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Documents\networks\tez\service\src\main\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7D807CA9-E8EF-4D95-88A5-E8A8D2B11227}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{387D2CCC-F997-4CBF-AEE1-B76A0F1EFCB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="45">
   <si>
     <r>
       <rPr>
@@ -40,12 +40,6 @@
     </r>
   </si>
   <si>
-    <t>КОД ТН ВЭД           /HS CODE</t>
-  </si>
-  <si>
-    <t>Наименование товара                                                                          /Name of Goods</t>
-  </si>
-  <si>
     <t>Ед. Изм. /Unit</t>
   </si>
   <si>
@@ -64,33 +58,6 @@
     <t>Итого/Total:</t>
   </si>
   <si>
-    <t>Параметры для проверки корректности заполнения данных</t>
-  </si>
-  <si>
-    <t>Параметр</t>
-  </si>
-  <si>
-    <t>Код ТН ВЭД/     HS CODE</t>
-  </si>
-  <si>
-    <t>Вес брутто</t>
-  </si>
-  <si>
-    <t>Вес нетто</t>
-  </si>
-  <si>
-    <t>Пояснение</t>
-  </si>
-  <si>
-    <t>Сверка с кодом ТН ВЭД указанной в IFTMIN</t>
-  </si>
-  <si>
-    <t>Сверка с весом указанной в IFTMIN</t>
-  </si>
-  <si>
-    <t>Сверка с весом  указанной в IFTMIN</t>
-  </si>
-  <si>
     <t>шт</t>
   </si>
   <si>
@@ -119,9 +86,6 @@
   </si>
   <si>
     <t>Номер инвойса / Invoice number</t>
-  </si>
-  <si>
-    <t>A123</t>
   </si>
   <si>
     <t>GUANGDONG, CHINA</t>
@@ -171,12 +135,78 @@
   <si>
     <t>Engraving Machine</t>
   </si>
+  <si>
+    <t>Станки для обработки дерева</t>
+  </si>
+  <si>
+    <t>КОД ТН ВЭД/HS CODE</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Наименование товара                                                                    /Name of Goods                                      </t>
+  </si>
+  <si>
+    <t>Колонки</t>
+  </si>
+  <si>
+    <t>Варианты</t>
+  </si>
+  <si>
+    <t>код валюты взять из названия стоимости (Цена (USD))</t>
+  </si>
+  <si>
+    <t>Package qty/ кол. упаковки</t>
+  </si>
+  <si>
+    <t>вес нетто, Net Wt - KG (per case, total), вес нетто.кг, Net Weight, N.W., Netto</t>
+  </si>
+  <si>
+    <t xml:space="preserve">вес брутто, Gross Wt - KG (per case, total), вес брутто.кг, Gross weight, G.W., Brutto, </t>
+  </si>
+  <si>
+    <t>цена, Unit Price (EA), Цена (USD), U/Price$US, Цена, доллар США, Unit Price (USD)
+Цена за ед, Цена в USD</t>
+  </si>
+  <si>
+    <t>сумма, Amount, Сумма (USD), Amount/$Us, Total, Сумма, доллар США, сумма юаней КНР, Amount (USD) 
+Общая суммаm, Итого</t>
+  </si>
+  <si>
+    <t>наименование, Description of Goods, Описание, Product, наименование товаров, name of goods, Description</t>
+  </si>
+  <si>
+    <t>код,HS CODE,Код товара, Код ТНВЭД, HS codes / ТНВЭД код</t>
+  </si>
+  <si>
+    <t>кол-во, Quantity, Total Quantity(EA), Quantities - Pcs (per case, total),  Количество (шт), Total ea, Quantity/BAGS, место и кал-во, кол-во, QTY / Кол-во</t>
+  </si>
+  <si>
+    <t>measurement (L, W, H, cm, C.Meter), Unit / 
+Ед.изм, измерение, Qnt, UM /Едн</t>
+  </si>
+  <si>
+    <t>Shipper / Exporter / Грузоотправитель / экспортер</t>
+  </si>
+  <si>
+    <t xml:space="preserve">No. &amp; Date of Invoice / Номер и дата счета-фактуры </t>
+  </si>
+  <si>
+    <t>Consignee/ Грузополучатель (полное имя)</t>
+  </si>
+  <si>
+    <t>Номер накладной / Bill number</t>
+  </si>
+  <si>
+    <t>указывается на первой странице накладной</t>
+  </si>
+  <si>
+    <t>Отправка №</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -238,6 +268,13 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -457,7 +494,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -475,9 +512,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="14" fontId="2" fillId="0" borderId="11" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -494,53 +528,61 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" indent="2"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="5">
@@ -884,209 +926,332 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:J16"/>
+  <dimension ref="A1:J29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="B16" sqref="B16:C29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.5546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="42" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="38.5703125" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.42578125" customWidth="1"/>
+    <col min="3" max="3" width="38.5546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.44140625" customWidth="1"/>
     <col min="5" max="5" width="8"/>
     <col min="6" max="6" width="13"/>
     <col min="7" max="7" width="12"/>
     <col min="8" max="8" width="14"/>
-    <col min="9" max="9" width="15.5703125" customWidth="1"/>
-    <col min="10" max="10" width="12.42578125" customWidth="1"/>
+    <col min="9" max="9" width="15.5546875" customWidth="1"/>
+    <col min="10" max="10" width="12.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="2" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B2" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="C2" s="14" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+      <c r="C2" s="13">
+        <v>30406547</v>
+      </c>
+      <c r="D2" s="28" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
-        <v>26</v>
-      </c>
-      <c r="C3" s="10">
+        <v>15</v>
+      </c>
+      <c r="C3" s="9">
         <v>44652</v>
       </c>
     </row>
-    <row r="4" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="7" t="s">
-        <v>25</v>
-      </c>
-      <c r="C4" s="11" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
+        <v>14</v>
+      </c>
+      <c r="C4" s="10" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B5" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C5" s="12" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10" ht="26.25" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="15" t="s">
-        <v>23</v>
+        <v>13</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>12</v>
       </c>
       <c r="C6" s="5">
-        <v>1683</v>
-      </c>
-    </row>
-    <row r="7" spans="1:10" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="8" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" s="2" customFormat="1" ht="19.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="8" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B8" s="17" t="s">
+      <c r="B8" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>1</v>
       </c>
-      <c r="C8" s="17" t="s">
+      <c r="E8" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="D8" s="18" t="s">
+      <c r="F8" s="15" t="s">
         <v>3</v>
       </c>
-      <c r="E8" s="17" t="s">
+      <c r="G8" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="F8" s="17" t="s">
+      <c r="H8" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="I8" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="J8" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="G8" s="19" t="s">
+    </row>
+    <row r="9" spans="1:10" ht="58.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" s="20">
+        <v>8465200000</v>
+      </c>
+      <c r="C9" s="21" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E9" s="23">
+        <v>2</v>
+      </c>
+      <c r="F9" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G9" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H9" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I9" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J9" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" ht="15.6" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="19">
+        <v>2</v>
+      </c>
+      <c r="B10" s="20">
+        <v>8465101000</v>
+      </c>
+      <c r="C10" s="21" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="E10" s="23">
+        <v>2</v>
+      </c>
+      <c r="F10" s="24" t="s">
+        <v>8</v>
+      </c>
+      <c r="G10" s="23" t="s">
+        <v>20</v>
+      </c>
+      <c r="H10" s="23" t="s">
+        <v>21</v>
+      </c>
+      <c r="I10" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="J10" s="23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H8" s="20" t="s">
-        <v>20</v>
-      </c>
-      <c r="I8" s="18" t="s">
-        <v>21</v>
-      </c>
-      <c r="J8" s="18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10" ht="15" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="21" t="s">
+      <c r="B11" s="33"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="27"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23">
+        <v>810432</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B12" s="34"/>
+      <c r="C12" s="34"/>
+      <c r="D12" s="34"/>
+      <c r="E12" s="34"/>
+      <c r="F12" s="34"/>
+      <c r="G12" s="34"/>
+      <c r="H12" s="34"/>
+      <c r="I12" s="34"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="B13" s="34"/>
+      <c r="C13" s="34"/>
+      <c r="D13" s="34"/>
+      <c r="E13" s="34"/>
+      <c r="F13" s="34"/>
+      <c r="G13" s="34"/>
+      <c r="H13" s="34"/>
+      <c r="I13" s="34"/>
+    </row>
+    <row r="15" spans="1:10" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="30" t="s">
+        <v>27</v>
+      </c>
+      <c r="C15" s="31" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="15" t="s">
+        <v>25</v>
+      </c>
+      <c r="C16" s="28" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" s="28" t="s">
+        <v>35</v>
+      </c>
+      <c r="E17" s="12"/>
+      <c r="F17" s="4"/>
+    </row>
+    <row r="18" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="15" t="s">
+        <v>2</v>
+      </c>
+      <c r="C19" s="29" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="15" t="s">
+        <v>3</v>
+      </c>
+      <c r="C20" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="22">
-        <v>8465200000</v>
-      </c>
-      <c r="C9" s="23" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" s="24" t="s">
-        <v>18</v>
-      </c>
-      <c r="E9" s="25">
-        <v>2</v>
-      </c>
-      <c r="F9" s="26" t="s">
-        <v>19</v>
-      </c>
-      <c r="G9" s="25" t="s">
+    </row>
+    <row r="21" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B21" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C21" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="H9" s="25" t="s">
+    </row>
+    <row r="22" spans="2:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B22" s="18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I9" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="J9" s="25" t="s">
+    </row>
+    <row r="23" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C23" s="28" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" ht="53.4" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B24" s="16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C24" s="29" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="10" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="C10" s="8"/>
-      <c r="D10" s="29"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="29"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="25">
-        <v>405216</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B11" s="16"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="16"/>
-      <c r="G11" s="16"/>
-      <c r="H11" s="16"/>
-      <c r="I11" s="16"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B12" s="16" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="16"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="16"/>
-      <c r="G12" s="16"/>
-      <c r="H12" s="16"/>
-      <c r="I12" s="16"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B13" s="3" t="s">
+    <row r="25" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="6" t="s">
+        <v>16</v>
+      </c>
+      <c r="C25" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" ht="27" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C26" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D26" s="28"/>
+      <c r="E26" s="28"/>
+    </row>
+    <row r="27" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B27" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="28" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B14" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14" s="9" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B16" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16" s="3" t="s">
+      <c r="C28" s="28" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B29" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="4"/>
+      <c r="C29" s="28" t="s">
+        <v>41</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="3">
-    <mergeCell ref="A10:B10"/>
-    <mergeCell ref="B11:I11"/>
+    <mergeCell ref="A11:B11"/>
     <mergeCell ref="B12:I12"/>
+    <mergeCell ref="B13:I13"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
